--- a/biology/Zoologie/Capillaster_multiradiatus/Capillaster_multiradiatus.xlsx
+++ b/biology/Zoologie/Capillaster_multiradiatus/Capillaster_multiradiatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capillaster multiradiatus est une espèce de crinoïde tropical de la famille des Comatulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre se caractérise par des segments brachiaux oblongs, beaucoup plus larges que longs[2]. Ces segments brachiaux sont parfois d'une autre couleur que les pinnules (qui sont le plus souvent noires, mais pas toujours), et les brachiaux médians sont très épineux. Les bras (entre 10 et 30[3]) sont relativement souples, et peuvent s'enrouler pour refermer l'animal presque comme un poing. Les pinnules orales portent des dents confluentes formant des peignes. Cette espèce est pourvue d'une dizaine de longs cirrhes[3] bien visibles pour s'accrocher à son support, ou se déplacer si nécessaire ; ils sont souvent couverts d'épibiontes, leur donnant une teinte grise.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre se caractérise par des segments brachiaux oblongs, beaucoup plus larges que longs. Ces segments brachiaux sont parfois d'une autre couleur que les pinnules (qui sont le plus souvent noires, mais pas toujours), et les brachiaux médians sont très épineux. Les bras (entre 10 et 30) sont relativement souples, et peuvent s'enrouler pour refermer l'animal presque comme un poing. Les pinnules orales portent des dents confluentes formant des peignes. Cette espèce est pourvue d'une dizaine de longs cirrhes bien visibles pour s'accrocher à son support, ou se déplacer si nécessaire ; ils sont souvent couverts d'épibiontes, leur donnant une teinte grise.
 			Face aborale
 			Gros-plan sur le centrodorsal
 			De profil
@@ -547,10 +561,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit relativement exposée, au sommet des coraux à faible profondeur, et peut être relativement commune. Plutôt nocturne, on peut parfois aussi l'observer en plein jour. 
-On la trouve dans les écosystèmes coralliens de l'Indo-Pacifique tropical, Depuis la Mer Rouge et l'océan indien notamment aux Maldives et jusqu'en Australie, Nouvelle-Calédonie et Philippines[3], entre la surface et 300 m de profondeur[3]. 
+On la trouve dans les écosystèmes coralliens de l'Indo-Pacifique tropical, Depuis la Mer Rouge et l'océan indien notamment aux Maldives et jusqu'en Australie, Nouvelle-Calédonie et Philippines, entre la surface et 300 m de profondeur. 
 </t>
         </is>
       </c>
